--- a/美工文档/美工改.xlsx
+++ b/美工文档/美工改.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLACSTAR\Documents\Tencent Files\340176463\FileRecv\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9270" activeTab="15"/>
   </bookViews>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="422">
   <si>
     <t>金刚之躯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手握火焰之矛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一个手腕处有断裂的铁质手铐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,10 +404,6 @@
   </si>
   <si>
     <t>耳朵变成火焰状</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一只手握有阴森火焰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1272,10 +1259,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>胸部出现石质盔甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>四肢出现利爪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1300,10 +1283,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>身前出现两个漂浮的石质护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">极光 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1504,10 +1483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>背后出现钢制羽翼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>幼年的小熊 身体有些部分披着钢甲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1755,13 +1730,41 @@
   </si>
   <si>
     <t>如下图带着这种游泳圈的小乌龟</t>
+  </si>
+  <si>
+    <t>身边漂浮多个火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踏火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身前出现两个漂浮的土质护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸部出现土质盔甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身边漂浮着雪花构成的结界</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手持剑盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身旁有绿色毒气泡环绕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1900,7 +1903,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1966,7 +1969,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1998,10 +2001,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2033,7 +2035,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2209,14 +2210,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="7.875" customWidth="1"/>
@@ -2225,80 +2226,80 @@
     <col min="8" max="8" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27">
+      <c r="A8" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27">
+      <c r="A9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="40.5">
+      <c r="A11" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27">
+      <c r="A13" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2308,16 +2309,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2329,12 +2330,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2346,12 +2347,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2363,12 +2364,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="27">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -2428,9 +2429,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2440,16 +2441,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2461,12 +2462,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2478,12 +2479,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2495,12 +2496,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2512,12 +2513,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2529,9 +2530,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2541,238 +2542,238 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5">
       <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="71.25">
+      <c r="A3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="40.5">
+      <c r="A4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="67.5">
+      <c r="A5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57">
+      <c r="A6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="7" spans="1:6" ht="54">
+      <c r="A7" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="67.5">
+      <c r="A8" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="67.5">
+      <c r="A9" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="54">
+      <c r="A10" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    <row r="11" spans="1:6" ht="54">
+      <c r="A11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="40.5">
+      <c r="A13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="67.5">
+      <c r="A14" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
     </row>
@@ -2788,218 +2789,220 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27">
       <c r="A2" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="27">
+      <c r="A3" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="27">
+      <c r="A4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="40.5">
+      <c r="A5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="40.5">
+      <c r="A6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="27">
+      <c r="A8" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="27">
+      <c r="A9" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="27">
+      <c r="A10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="27">
+      <c r="A11" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3007,35 +3010,35 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="40.5">
       <c r="A14" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:6" ht="40.5">
       <c r="A15" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
     </row>
@@ -3050,234 +3053,234 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="81">
       <c r="A2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.5">
+      <c r="A3" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="40.5">
+      <c r="A4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27">
+      <c r="A5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="85.5">
+      <c r="A6" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="67.5">
+      <c r="A7" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="67.5">
+      <c r="A8" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="128.25">
+      <c r="A9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="54">
+      <c r="A10" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" s="6" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="121.5">
+      <c r="A11" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="40.5">
+      <c r="A13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="54">
+      <c r="A14" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3290,227 +3293,229 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27">
       <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="94.5">
       <c r="A2" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="57">
       <c r="A3" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>370</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="81">
       <c r="A4" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="94.5">
       <c r="A6" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="81">
       <c r="A7" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="40.5">
       <c r="A8" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="108">
       <c r="A9" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="121.5">
       <c r="A10" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="27">
       <c r="A11" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
@@ -3518,33 +3523,33 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="40.5">
       <c r="A13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="67.5">
       <c r="A14" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3560,293 +3565,296 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="27">
       <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>392</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>207</v>
+        <v>393</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>283</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="81">
       <c r="A3" s="4" t="s">
-        <v>389</v>
+        <v>208</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="27">
       <c r="A4" s="4" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>209</v>
+        <v>396</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>283</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="121.5">
       <c r="A5" s="4" t="s">
-        <v>210</v>
+        <v>401</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>211</v>
+        <v>403</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>283</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="54">
       <c r="A6" s="4" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>396</v>
+        <v>207</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="27">
       <c r="A7" s="4" t="s">
-        <v>212</v>
+        <v>399</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>283</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="94.5">
       <c r="A8" s="4" t="s">
-        <v>397</v>
+        <v>204</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>398</v>
+        <v>205</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="81">
       <c r="A9" s="4" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>401</v>
+        <v>206</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="108">
       <c r="A10" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="54">
+      <c r="A11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="40.5">
+      <c r="A16" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="67.5">
+      <c r="A17" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>409</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E11">
+    <sortCondition ref="E2:E11"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A9:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
         <v>144</v>
       </c>
-      <c r="B9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>145</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>150</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3856,14 +3864,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3871,14 +3879,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -3889,34 +3897,34 @@
     <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -3924,21 +3932,21 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="40.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3947,7 +3955,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="27">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -3958,10 +3966,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3970,21 +3978,21 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="40.5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3993,21 +4001,21 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="54">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -4016,21 +4024,21 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="54">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4039,7 +4047,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="54">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4047,13 +4055,13 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4062,21 +4070,21 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4085,7 +4093,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="135" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="135">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -4093,13 +4101,13 @@
         <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4108,7 +4116,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="40.5">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -4116,13 +4124,13 @@
         <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -4131,7 +4139,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="27">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -4139,13 +4147,13 @@
         <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -4154,40 +4162,40 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="27">
       <c r="A15" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:12" ht="54">
       <c r="A16" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="F27" s="1"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:2">
       <c r="B70" s="1"/>
     </row>
   </sheetData>
@@ -4201,41 +4209,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="94.5">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -4246,13 +4254,13 @@
         <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="54">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -4263,13 +4271,13 @@
         <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="67.5">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -4280,13 +4288,13 @@
         <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4294,16 +4302,16 @@
         <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="81">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -4314,30 +4322,30 @@
         <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="54">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -4345,16 +4353,16 @@
         <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="108">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -4365,80 +4373,80 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="94.5">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="40.5">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="40.5">
       <c r="A15" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:6" ht="67.5">
       <c r="A16" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
       <c r="E18" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4452,44 +4460,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.5">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4500,32 +4508,32 @@
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="27">
       <c r="A4" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="40.5">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -4533,35 +4541,35 @@
         <v>58</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="27">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="27">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -4569,17 +4577,17 @@
         <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="27">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -4587,17 +4595,17 @@
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="40.5">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4605,17 +4613,17 @@
         <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="67.5">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4623,17 +4631,17 @@
         <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="27">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -4644,14 +4652,14 @@
         <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="27">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -4662,43 +4670,43 @@
         <v>66</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="40.5">
+      <c r="A15" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="40.5">
+      <c r="A16" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="B16" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4711,40 +4719,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="108">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4752,16 +4760,16 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -4769,13 +4777,13 @@
         <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4786,13 +4794,13 @@
         <v>69</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="54">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4800,16 +4808,16 @@
         <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40.5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4817,30 +4825,30 @@
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>415</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="81">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4848,16 +4856,16 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="108">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4865,16 +4873,16 @@
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -4882,57 +4890,57 @@
         <v>76</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="40.5">
+      <c r="A15" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27">
+      <c r="A16" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" s="6"/>
     </row>
   </sheetData>
@@ -4946,41 +4954,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4988,188 +4996,188 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="40.5">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40.5">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27">
       <c r="A13" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27">
       <c r="A14" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -5182,16 +5190,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5203,12 +5211,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5220,12 +5228,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5237,12 +5245,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5254,12 +5262,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -5271,12 +5279,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -5288,15 +5296,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="27">
       <c r="A17" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="27">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -5308,12 +5316,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="27">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -5325,12 +5333,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="27">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -5342,16 +5350,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="27">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -5363,14 +5371,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5380,16 +5388,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5401,12 +5409,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5418,12 +5426,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5435,12 +5443,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5452,12 +5460,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -5469,12 +5477,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -5486,12 +5494,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="54">
       <c r="A17" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -5503,12 +5511,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="81">
       <c r="A20" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -5520,12 +5528,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="94.5">
       <c r="A22" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -5537,12 +5545,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="81">
       <c r="A25" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="27">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -5554,12 +5562,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -5571,19 +5579,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5593,16 +5601,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5614,12 +5622,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5631,12 +5639,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5648,12 +5656,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5665,12 +5673,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -5682,12 +5690,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -5699,12 +5707,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -5716,12 +5724,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -5733,7 +5741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="27">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -5745,7 +5753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="27">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -5757,9 +5765,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/美工文档/美工改.xlsx
+++ b/美工文档/美工改.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLACSTAR\Documents\GitHub\PixelPixie\美工文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9270" activeTab="15"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="怪物模型" sheetId="6" r:id="rId1"/>
@@ -173,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>口中发出持续的噪音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金属爆破</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1759,11 +1760,14 @@
     <t>身旁有绿色毒气泡环绕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>口中发出持续的噪音(類似声波一样的波纹)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1903,7 +1907,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1969,7 +1973,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2001,9 +2005,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2035,6 +2040,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2210,7 +2216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2228,78 +2234,78 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27">
       <c r="A8" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="40.5">
       <c r="A11" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27">
       <c r="A13" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2332,7 +2338,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -2349,7 +2355,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2366,7 +2372,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -2431,7 +2437,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2464,7 +2470,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -2481,7 +2487,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2498,7 +2504,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -2515,7 +2521,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2532,7 +2538,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2542,7 +2548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2556,221 +2562,221 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
         <v>172</v>
-      </c>
-      <c r="F1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5">
       <c r="A2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="71.25">
       <c r="A3" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5">
       <c r="A4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="67.5">
       <c r="A5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57">
       <c r="A6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="54">
       <c r="A7" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="67.5">
       <c r="A8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="67.5">
       <c r="A9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="54">
       <c r="A10" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="54">
       <c r="A11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="40.5">
       <c r="A13" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="67.5">
       <c r="A14" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25">
@@ -2789,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2804,201 +2810,201 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27">
       <c r="A2" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="27">
       <c r="A3" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="27">
       <c r="A4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="40.5">
+    <row r="5" spans="1:6" ht="54">
       <c r="A5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="40.5">
+    <row r="6" spans="1:6" ht="54">
       <c r="A6" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="27">
       <c r="A8" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="27">
       <c r="A9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="40.5">
+      <c r="A10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="27">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="27">
       <c r="A11" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -3012,30 +3018,30 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="40.5">
       <c r="A14" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="40.5">
       <c r="A15" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25">
@@ -3053,7 +3059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -3067,220 +3073,220 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
         <v>172</v>
-      </c>
-      <c r="F1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="81">
       <c r="A2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5">
       <c r="A3" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5">
       <c r="A4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27">
       <c r="A5" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="85.5">
       <c r="A6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="67.5">
       <c r="A7" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="67.5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="81">
       <c r="A8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="128.25">
       <c r="A9" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="54">
       <c r="A10" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>338</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="121.5">
       <c r="A11" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="40.5">
       <c r="A13" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="54">
+    </row>
+    <row r="14" spans="1:6" ht="67.5">
       <c r="A14" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3293,7 +3299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -3304,218 +3310,218 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="94.5">
       <c r="A2" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>359</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="57">
       <c r="A3" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="81">
+    <row r="4" spans="1:7" ht="67.5">
       <c r="A4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="27">
       <c r="A5" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="94.5">
       <c r="A6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="81">
       <c r="A7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="40.5">
       <c r="A8" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="108">
       <c r="A9" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="121.5">
       <c r="A10" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="27">
       <c r="A11" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
@@ -3525,13 +3531,13 @@
     </row>
     <row r="13" spans="1:7" ht="40.5">
       <c r="A13" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3540,13 +3546,13 @@
     </row>
     <row r="14" spans="1:7" ht="67.5">
       <c r="A14" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3565,237 +3571,237 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5">
       <c r="A2" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>394</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="81">
       <c r="A3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="27">
       <c r="A4" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="121.5">
       <c r="A5" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>402</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="54">
       <c r="A6" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="27">
       <c r="A7" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>400</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="94.5">
       <c r="A8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
       <c r="A9" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="108">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="94.5">
       <c r="A10" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="54">
       <c r="A11" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="40.5">
       <c r="A16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="67.5">
       <c r="A17" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3808,7 +3814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3819,42 +3825,42 @@
   <sheetData>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
         <v>143</v>
-      </c>
-      <c r="B10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
         <v>145</v>
-      </c>
-      <c r="B11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
         <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
         <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3864,7 +3870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3879,11 +3885,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3899,32 +3905,32 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
         <v>166</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
         <v>172</v>
-      </c>
-      <c r="F2" t="s">
-        <v>173</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -3937,16 +3943,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3957,19 +3963,19 @@
     </row>
     <row r="4" spans="1:12" ht="27">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3983,16 +3989,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4006,16 +4012,16 @@
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>421</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -4026,19 +4032,19 @@
     </row>
     <row r="7" spans="1:12" ht="54">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4055,13 +4061,13 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4072,19 +4078,19 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4101,13 +4107,13 @@
         <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4118,19 +4124,19 @@
     </row>
     <row r="11" spans="1:12" ht="40.5">
       <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -4147,13 +4153,13 @@
         <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -4164,29 +4170,29 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="27">
       <c r="A15" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="54">
+    </row>
+    <row r="16" spans="1:12" ht="67.5">
       <c r="A16" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4209,10 +4215,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -4220,27 +4226,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
         <v>166</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
         <v>172</v>
-      </c>
-      <c r="F2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="94.5">
@@ -4248,50 +4254,50 @@
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="54">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="54">
+      <c r="A5" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="67.5">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
@@ -4299,16 +4305,16 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -4316,33 +4322,33 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="54">
@@ -4350,16 +4356,16 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="108">
@@ -4367,16 +4373,16 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="94.5">
@@ -4384,61 +4390,61 @@
         <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="40.5">
       <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="40.5">
       <c r="A15" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="67.5">
       <c r="A16" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="C16" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="5:5">
@@ -4446,7 +4452,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4460,10 +4466,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -4474,27 +4480,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
         <v>166</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
         <v>172</v>
-      </c>
-      <c r="F2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5">
@@ -4502,34 +4508,34 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="27">
       <c r="A4" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -4538,34 +4544,34 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="27">
       <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -4577,31 +4583,31 @@
         <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="27">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -4610,16 +4616,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -4628,85 +4634,85 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="27">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="27">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="40.5">
       <c r="A15" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="40.5">
       <c r="A16" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4719,11 +4725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4734,22 +4740,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
         <v>172</v>
-      </c>
-      <c r="F1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="108">
@@ -4757,30 +4763,30 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4791,13 +4797,13 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="54">
@@ -4805,16 +4811,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="40.5">
@@ -4822,30 +4828,30 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -4853,16 +4859,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="108">
@@ -4870,74 +4876,74 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="40.5">
       <c r="A15" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>251</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="27">
       <c r="A16" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -4954,11 +4960,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4970,22 +4976,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
         <v>172</v>
-      </c>
-      <c r="F1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4996,13 +5002,13 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27">
@@ -5010,16 +5016,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5">
@@ -5027,33 +5033,33 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="40.5">
@@ -5061,33 +5067,33 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5">
@@ -5095,16 +5101,16 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27">
@@ -5112,72 +5118,72 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27">
       <c r="A13" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>250</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27">
       <c r="A14" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>410</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -5190,7 +5196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5213,7 +5219,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -5230,7 +5236,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -5247,7 +5253,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -5264,7 +5270,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -5281,7 +5287,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27">
@@ -5298,10 +5304,10 @@
     </row>
     <row r="17" spans="1:8" ht="27">
       <c r="A17" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="27">
@@ -5318,7 +5324,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27">
@@ -5335,7 +5341,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
@@ -5352,7 +5358,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -5373,12 +5379,12 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5388,7 +5394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -5411,7 +5417,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -5428,7 +5434,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -5445,7 +5451,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -5462,7 +5468,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -5479,7 +5485,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27">
@@ -5496,7 +5502,7 @@
     </row>
     <row r="17" spans="1:4" ht="54">
       <c r="A17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27">
@@ -5513,7 +5519,7 @@
     </row>
     <row r="20" spans="1:4" ht="81">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27">
@@ -5528,9 +5534,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="94.5">
+    <row r="22" spans="1:4" ht="81">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27">
@@ -5547,7 +5553,7 @@
     </row>
     <row r="25" spans="1:4" ht="81">
       <c r="A25" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="27">
@@ -5564,7 +5570,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27">
@@ -5581,17 +5587,17 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5601,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -5624,7 +5630,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -5641,7 +5647,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -5658,7 +5664,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -5675,7 +5681,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -5692,7 +5698,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27">
@@ -5709,7 +5715,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27">
@@ -5726,7 +5732,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="27">
@@ -5767,7 +5773,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
